--- a/Writing/week2/week2.xlsx
+++ b/Writing/week2/week2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashkarle/soccer-ds-stats/Writing/week2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E82AA6-36FF-E445-8932-7FEF370FEB1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC6D76F-7D16-BE43-A9C6-A75AEC97B591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" activeTab="2" xr2:uid="{E93522CD-A16F-944B-B80D-1F57AE0445AA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" activeTab="1" xr2:uid="{E93522CD-A16F-944B-B80D-1F57AE0445AA}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Match Analysis" sheetId="1" r:id="rId1"/>
@@ -2636,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82DF0DB-5968-4B43-A8AA-4F8D1A6A0F46}">
   <dimension ref="B2:R50"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3217,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0964CF1-FDC5-0142-B968-561FCC0D04D5}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
